--- a/Квитанция.xlsx
+++ b/Квитанция.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9DADEA-0D19-4A4F-A9F8-51AB4F6E2B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA80207-5650-4E6B-86A9-62B1E9892D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Благодарим за сотрудничество!</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>ВЫПОЛНЕННАЯ РАБОТЫ</t>
+  </si>
+  <si>
+    <t>Аванс</t>
   </si>
 </sst>
 </file>
@@ -951,7 +954,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -969,9 +972,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="13" applyFont="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="8"/>
@@ -991,6 +991,89 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1000,71 +1083,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1074,29 +1092,17 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -1157,58 +1163,6 @@
   <dxfs count="14">
     <dxf>
       <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1241,6 +1195,31 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1257,6 +1236,21 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1277,8 +1271,15 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1289,14 +1290,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
+        <left style="thin">
           <color indexed="64"/>
-        </right>
+        </left>
+        <right/>
         <top/>
-        <bottom/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1338,24 +1340,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <color theme="1" tint="0.249977111117893"/>
       </font>
     </dxf>
@@ -1372,6 +1356,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1428,13 +1434,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Данные" displayName="Данные" ref="B23:E30" totalsRowCount="1" headerRowDxfId="0" dataDxfId="10" totalsRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Данные" displayName="Данные" ref="B23:E30" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
   <autoFilter ref="B23:E29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="НАЗВАНИЕ" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="КОЛИЧЕСТВО" dataDxfId="8" totalsRowDxfId="4" dataCellStyle="Финансовый"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="СТОИМОСТЬ" totalsRowLabel="ИТОГО К ОПЛАТЕ" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ИТОГО" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="НАЗВАНИЕ" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="КОЛИЧЕСТВО" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Финансовый"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="СТОИМОСТЬ" totalsRowLabel="ИТОГО К ОПЛАТЕ" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ИТОГО" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1681,15 +1687,15 @@
   <dimension ref="B1:F36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="61.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="49.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.6640625" customWidth="1"/>
   </cols>
@@ -1699,10 +1705,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="2:5" ht="19.2" customHeight="1">
       <c r="B2" s="2"/>
@@ -1711,293 +1717,295 @@
       <c r="E2"/>
     </row>
     <row r="3" spans="2:5" ht="30" customHeight="1">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" ht="25.05" customHeight="1">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="2:5" ht="25.05" customHeight="1">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="50"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="2:5" ht="25.05" customHeight="1">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="2:5" ht="25.05" customHeight="1">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="2:5" ht="25.05" customHeight="1">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="50"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="2:5" ht="25.05" customHeight="1">
-      <c r="B9" s="11"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="50"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="2:5" ht="25.05" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="2:5" ht="25.05" customHeight="1">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="2:5" ht="30" customHeight="1">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="47"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="2:5" ht="30" customHeight="1">
-      <c r="B14" s="31"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="30"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="2:5" ht="30" customHeight="1">
-      <c r="B15" s="31"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="30"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1">
-      <c r="B16" s="31"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="30"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1">
-      <c r="B17" s="31"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="30"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1">
-      <c r="B18" s="31"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="30"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1">
-      <c r="B19" s="31"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="30"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1">
-      <c r="B20" s="36"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="37">
+      <c r="B20" s="27"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="41">
         <f>SUBTOTAL(109,Данные[ИТОГО])</f>
         <v>0</v>
       </c>
-      <c r="E20" s="38"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="18"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6" ht="30" customHeight="1">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="51" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1">
-      <c r="B24" s="21"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="22">
+      <c r="B24" s="16"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="17">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1">
-      <c r="B25" s="21"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="22">
+      <c r="B25" s="16"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="17">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="30" customHeight="1">
-      <c r="B26" s="21"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="22">
+      <c r="B26" s="16"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="17">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="30" customHeight="1">
-      <c r="B27" s="21"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="22">
+      <c r="B27" s="16"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="17">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="30" customHeight="1">
-      <c r="B28" s="21"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="22">
+      <c r="B28" s="16"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="17">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="30" customHeight="1">
-      <c r="B29" s="21"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="22">
+      <c r="B29" s="16"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="17">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="30" customHeight="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="20">
         <f>SUBTOTAL(109,Данные[ИТОГО])</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="30" customHeight="1">
-      <c r="B31" s="17" t="str">
+      <c r="B31" s="45" t="str">
         <f>"Все чеки должны быть выписаны на компанию "&amp;Название_Компании&amp;"."</f>
         <v>Все чеки должны быть выписаны на компанию Мастерская "СделаНо".</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" spans="2:6" ht="30" customHeight="1">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
     </row>
     <row r="35" spans="3:6" ht="30" customHeight="1">
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
     </row>
     <row r="36" spans="3:6" ht="30" customHeight="1">
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C35:F35"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="19">
@@ -2023,7 +2031,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/Квитанция.xlsx
+++ b/Квитанция.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA80207-5650-4E6B-86A9-62B1E9892D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89C02E4-A2E2-43F9-A259-D7E31E3F68A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>ИТОГО</t>
   </si>
   <si>
-    <t>КВИТАНЦИЯ</t>
-  </si>
-  <si>
     <t>Мастерская "СделаНо"</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>Аванс</t>
+  </si>
+  <si>
+    <t>КВИТАНЦИЯ №</t>
   </si>
 </sst>
 </file>
@@ -954,7 +954,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -977,8 +977,6 @@
       <alignment horizontal="left" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
     </xf>
@@ -1053,6 +1051,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1062,47 +1070,44 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="8"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -1163,6 +1168,75 @@
   <dxfs count="14">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1195,31 +1269,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1239,21 +1288,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1269,9 +1303,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1299,36 +1330,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1437,10 +1438,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Данные" displayName="Данные" ref="B23:E30" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
   <autoFilter ref="B23:E29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="НАЗВАНИЕ" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="КОЛИЧЕСТВО" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Финансовый"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="СТОИМОСТЬ" totalsRowLabel="ИТОГО К ОПЛАТЕ" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ИТОГО" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="НАЗВАНИЕ" dataDxfId="3" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="КОЛИЧЕСТВО" dataDxfId="2" totalsRowDxfId="6" dataCellStyle="Финансовый"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="СТОИМОСТЬ" totalsRowLabel="ИТОГО К ОПЛАТЕ" dataDxfId="0" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ИТОГО" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="4">
       <calculatedColumnFormula>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1686,8 +1687,8 @@
   </sheetPr>
   <dimension ref="B1:F36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
@@ -1695,20 +1696,20 @@
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="47.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="61.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="60" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="96" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="43"/>
+      <c r="D1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="2:5" ht="19.2" customHeight="1">
       <c r="B2" s="2"/>
@@ -1717,287 +1718,286 @@
       <c r="E2"/>
     </row>
     <row r="3" spans="2:5" ht="30" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>7</v>
+      <c r="B3" s="35" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="52" t="s">
-        <v>6</v>
+      <c r="D3" s="35" t="s">
+        <v>5</v>
       </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" ht="25.05" customHeight="1">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="2:5" ht="25.05" customHeight="1">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="10" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="34"/>
-    </row>
-    <row r="5" spans="2:5" ht="25.05" customHeight="1">
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="2:5" ht="25.05" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="34"/>
-    </row>
-    <row r="6" spans="2:5" ht="25.05" customHeight="1">
-      <c r="B6" s="10" t="s">
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="2:5" ht="25.05" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="2:5" ht="25.05" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="7" spans="2:5" ht="25.05" customHeight="1">
-      <c r="B7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" spans="2:5" ht="25.05" customHeight="1">
-      <c r="B8" s="10" t="s">
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="2:5" ht="25.05" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="34"/>
-    </row>
-    <row r="9" spans="2:5" ht="25.05" customHeight="1">
-      <c r="B9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="2:5" ht="25.05" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="35"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="2:5" ht="25.05" customHeight="1">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1">
-      <c r="B12" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="2:5" ht="30" customHeight="1">
-      <c r="B13" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="50"/>
+      <c r="B13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="2:5" ht="30" customHeight="1">
-      <c r="B14" s="25"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" spans="2:5" ht="30" customHeight="1">
-      <c r="B15" s="25"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1">
-      <c r="B16" s="25"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1">
-      <c r="B17" s="25"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1">
-      <c r="B18" s="25"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1">
-      <c r="B19" s="25"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1">
-      <c r="B20" s="27"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="41">
+      <c r="B20" s="25"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="52">
         <f>SUBTOTAL(109,Данные[ИТОГО])</f>
         <v>0</v>
       </c>
-      <c r="E20" s="42"/>
+      <c r="E20" s="53"/>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1">
-      <c r="B22" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="14"/>
+      <c r="B22" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="2:6" ht="30" customHeight="1">
-      <c r="B23" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="29" t="s">
+      <c r="B23" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="51" t="s">
+      <c r="D23" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1">
-      <c r="B24" s="16"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="17">
+      <c r="B24" s="14"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="15">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1">
-      <c r="B25" s="16"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="17">
+      <c r="B25" s="14"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="15">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="30" customHeight="1">
-      <c r="B26" s="16"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="17">
+      <c r="B26" s="14"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="15">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="30" customHeight="1">
-      <c r="B27" s="16"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="17">
+      <c r="B27" s="14"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="15">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="30" customHeight="1">
-      <c r="B28" s="16"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="17">
+      <c r="B28" s="14"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="15">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="30" customHeight="1">
-      <c r="B29" s="16"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="17">
+      <c r="B29" s="14"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="15">
         <f>Данные[[#This Row],[КОЛИЧЕСТВО]]*Данные[[#This Row],[СТОИМОСТЬ]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="30" customHeight="1">
-      <c r="B30" s="21"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="18">
         <f>SUBTOTAL(109,Данные[ИТОГО])</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="30" customHeight="1">
-      <c r="B31" s="45" t="str">
+      <c r="B31" s="47" t="str">
         <f>"Все чеки должны быть выписаны на компанию "&amp;Название_Компании&amp;"."</f>
         <v>Все чеки должны быть выписаны на компанию Мастерская "СделаНо".</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
     </row>
     <row r="32" spans="2:6" ht="30" customHeight="1">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
     </row>
     <row r="35" spans="3:6" ht="30" customHeight="1">
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" spans="3:6" ht="30" customHeight="1">
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D1:E1"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="C35:F35"/>
@@ -2010,7 +2010,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="19">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="На этом листе создайте счет с процентами по комиссии. Введите сведения о клиенте и доставке, описания и суммы. Итоговая сумма к оплате вычисляется автоматически." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="В ячейках ниже введите название организации, почтовый адрес, город, область или край, почтовый индекс, номера телефона и факса, а также электронный адрес." sqref="B1:C1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="В ячейках ниже введите название организации, почтовый адрес, город, область или край, почтовый индекс, номера телефона и факса, а также электронный адрес." sqref="B1:E1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="В этой ячейке введите адрес электронной почты компании, выставляющей счет." sqref="B2:C2" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="В ячейках ниже введите имя клиента, название организации, почтовый адрес и номер телефона, а в ячейках E8–E12 — сведения о доставке." sqref="B3:C3" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="В ячейках ниже введите сведения о доставке." sqref="D3:E3" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
@@ -2031,7 +2031,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="38" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
